--- a/results.xlsx
+++ b/results.xlsx
@@ -5,17 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Theory_py\archive\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Theory_py\theory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36472A4-B700-4622-B75A-34AAB0A55F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD696E22-7DAA-4BF1-84B3-3145D58E43A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1650" yWindow="4215" windowWidth="21600" windowHeight="10305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="another_results" sheetId="3" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId2"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>Вид обработки</t>
   </si>
@@ -47,6 +49,39 @@
   <si>
     <t>Токарная обработка  + обезжиривание</t>
   </si>
+  <si>
+    <t>curing_time</t>
+  </si>
+  <si>
+    <t>surface_energy</t>
+  </si>
+  <si>
+    <t>roughness</t>
+  </si>
+  <si>
+    <t>break_force</t>
+  </si>
+  <si>
+    <t>Время застывания</t>
+  </si>
+  <si>
+    <t>Процент прочности</t>
+  </si>
+  <si>
+    <t>Максимальная прочность (примерно)</t>
+  </si>
+  <si>
+    <t>МПа</t>
+  </si>
+  <si>
+    <t>Сечение образца</t>
+  </si>
+  <si>
+    <t>мм^2</t>
+  </si>
+  <si>
+    <t>Площадь сечения образца</t>
+  </si>
 </sst>
 </file>
 
@@ -66,12 +101,24 @@
       <name val="Times New Roman"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -114,7 +161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
@@ -122,6 +169,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -137,6 +186,3355 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>another_results!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>break_force</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>another_results!$A$2:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>168</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>another_results!$D$2:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-204F-4265-9C40-2093A611475C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1384602767"/>
+        <c:axId val="1384600367"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1384602767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>curing_time</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1384600367"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1384600367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>break_force</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1384602767"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>another_results!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>break_force</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>another_results!$B$2:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>another_results!$D$2:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E217-438C-80FF-B0031C1F37DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1486468607"/>
+        <c:axId val="1486463327"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1486468607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>surface_energy</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1486463327"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1486463327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>break_force</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1486468607"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>another_results!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>break_force</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>another_results!$C$2:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>another_results!$D$2:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-705C-43A7-ADCE-24A621470C3A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1486452287"/>
+        <c:axId val="1486455167"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1486452287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>roughness</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1486455167"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1486455167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>break_force</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1486452287"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB36D149-8B5D-FE26-6C97-060DE8623109}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Диаграмма 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FD8A394-CD05-4200-FFFB-4555A29E96BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>452437</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>147637</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Диаграмма 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93DD9F41-2062-4168-B473-97F49E7B765D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -401,10 +3799,382 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5888661-1B67-42A1-8B4C-25251A8991E2}">
+  <dimension ref="A1:O19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>24</v>
+      </c>
+      <c r="B2" s="3">
+        <v>34</v>
+      </c>
+      <c r="C2">
+        <v>3.2</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0.5</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>10</v>
+      </c>
+      <c r="N2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>24</v>
+      </c>
+      <c r="B3" s="3">
+        <v>44</v>
+      </c>
+      <c r="C3">
+        <v>3.1</v>
+      </c>
+      <c r="D3">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>20</v>
+      </c>
+      <c r="M3">
+        <v>25</v>
+      </c>
+      <c r="N3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>24</v>
+      </c>
+      <c r="B4" s="3">
+        <v>44</v>
+      </c>
+      <c r="C4">
+        <v>3.1</v>
+      </c>
+      <c r="D4">
+        <v>9.1</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>60</v>
+      </c>
+      <c r="M4">
+        <f>(PI()*M3^2)/4</f>
+        <v>490.87385212340519</v>
+      </c>
+      <c r="N4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>24</v>
+      </c>
+      <c r="B5" s="3">
+        <v>44</v>
+      </c>
+      <c r="C5">
+        <v>3.3</v>
+      </c>
+      <c r="D5">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="H5">
+        <v>6</v>
+      </c>
+      <c r="I5">
+        <v>80</v>
+      </c>
+      <c r="M5">
+        <f>10000/M4</f>
+        <v>20.371832715762604</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>34</v>
+      </c>
+      <c r="C6">
+        <v>0.1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>12</v>
+      </c>
+      <c r="I6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <v>44</v>
+      </c>
+      <c r="C7">
+        <v>2.6</v>
+      </c>
+      <c r="D7" s="3">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="H7">
+        <v>24</v>
+      </c>
+      <c r="I7">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>24</v>
+      </c>
+      <c r="B8">
+        <v>41</v>
+      </c>
+      <c r="C8">
+        <v>0.2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>72</v>
+      </c>
+      <c r="I8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>24</v>
+      </c>
+      <c r="B9">
+        <v>39</v>
+      </c>
+      <c r="C9">
+        <v>1.8</v>
+      </c>
+      <c r="D9" s="3">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>168</v>
+      </c>
+      <c r="I9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <v>43</v>
+      </c>
+      <c r="C10">
+        <v>1.2</v>
+      </c>
+      <c r="D10" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>24</v>
+      </c>
+      <c r="B11">
+        <v>44</v>
+      </c>
+      <c r="C11">
+        <v>1.5</v>
+      </c>
+      <c r="D11" s="4">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="B12" s="4">
+        <v>42</v>
+      </c>
+      <c r="C12" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>1</v>
+      </c>
+      <c r="B13" s="4">
+        <v>42</v>
+      </c>
+      <c r="C13" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="D13" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>3</v>
+      </c>
+      <c r="B14" s="4">
+        <v>42</v>
+      </c>
+      <c r="C14" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="D14" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>6</v>
+      </c>
+      <c r="B15" s="4">
+        <v>42</v>
+      </c>
+      <c r="C15" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="D15" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>12</v>
+      </c>
+      <c r="B16" s="4">
+        <v>42</v>
+      </c>
+      <c r="C16" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="D16" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>24</v>
+      </c>
+      <c r="B17" s="4">
+        <v>42</v>
+      </c>
+      <c r="C17" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="D17" s="4">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>72</v>
+      </c>
+      <c r="B18" s="4">
+        <v>42</v>
+      </c>
+      <c r="C18" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="D18" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>168</v>
+      </c>
+      <c r="B19" s="4">
+        <v>42</v>
+      </c>
+      <c r="C19" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="D19" s="4">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0"/>
+    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -559,4 +4329,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFD84DB-7E82-4802-A241-6AE118EDACAB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Theory_py\theory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD696E22-7DAA-4BF1-84B3-3145D58E43A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA0173D-3A38-4E30-9C14-490EE4403986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
   <si>
     <t>Вид обработки</t>
   </si>
@@ -82,17 +82,28 @@
   <si>
     <t>Площадь сечения образца</t>
   </si>
+  <si>
+    <t>break_force = -36.707 + 1.638*log(curing_time) + 0.892*surface_energy + 0.664*roughness</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -161,16 +172,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3800,10 +3814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5888661-1B67-42A1-8B4C-25251A8991E2}">
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3812,6 +3826,10 @@
     <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" customWidth="1"/>
+    <col min="16" max="16" width="18.28515625" customWidth="1"/>
+    <col min="17" max="17" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -4121,7 +4139,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>24</v>
       </c>
@@ -4135,7 +4153,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>72</v>
       </c>
@@ -4149,7 +4167,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>168</v>
       </c>
@@ -4161,11 +4179,145 @@
       </c>
       <c r="D19" s="4">
         <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N28" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N30" t="s">
+        <v>7</v>
+      </c>
+      <c r="O30" t="s">
+        <v>8</v>
+      </c>
+      <c r="P30" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N31">
+        <v>24</v>
+      </c>
+      <c r="O31">
+        <v>44</v>
+      </c>
+      <c r="P31">
+        <v>3.2</v>
+      </c>
+      <c r="Q31">
+        <f>-36+1.638*LN(N31)+0.892*O31+0.664*P31</f>
+        <v>10.578452174109934</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N32">
+        <v>24</v>
+      </c>
+      <c r="O32">
+        <v>39</v>
+      </c>
+      <c r="P32">
+        <v>3.2</v>
+      </c>
+      <c r="Q32">
+        <f>-36+1.638*LN(N32)+0.892*O32+0.664*P32</f>
+        <v>6.1184521741099402</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>44</v>
+      </c>
+      <c r="P33">
+        <v>3.2</v>
+      </c>
+      <c r="Q33">
+        <f>-36+1.638*LN(N33)+0.892*O33+0.664*P33</f>
+        <v>5.372799999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>24</v>
+      </c>
+      <c r="B44" s="3">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>3.1</v>
+      </c>
+      <c r="D44">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>24</v>
+      </c>
+      <c r="B45" s="3">
+        <v>44</v>
+      </c>
+      <c r="C45">
+        <v>3.1</v>
+      </c>
+      <c r="D45">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>24</v>
+      </c>
+      <c r="B46" s="3">
+        <v>44</v>
+      </c>
+      <c r="C46">
+        <v>3.3</v>
+      </c>
+      <c r="D46">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>24</v>
+      </c>
+      <c r="B47">
+        <v>44</v>
+      </c>
+      <c r="C47">
+        <v>2.6</v>
+      </c>
+      <c r="D47" s="3">
+        <v>9.1999999999999993</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
